--- a/demo/data/CC_MM_PRICELIST_DEMO.XLSX
+++ b/demo/data/CC_MM_PRICELIST_DEMO.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Niuren.Zhu/Codes/Niuren.Zhu/ibas-training/demo/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5058BB68-38E1-AC41-B982-FD318CD9BDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="物料价格清单" sheetId="1" r:id="rId1"/>
@@ -19,18 +20,18 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Template@ibas</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -40,13 +41,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -56,13 +57,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -72,13 +73,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -88,13 +89,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -104,13 +105,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -120,13 +121,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -136,13 +137,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -152,13 +153,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -168,13 +169,46 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G3" authorId="0" shapeId="0" xr:uid="{6534D228-A0D7-244F-904A-C5ED61BC5205}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">type: Property
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">path: UOM
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>class: java.lang.String</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
             <color indexed="8"/>
-            <rFont val="等线"/>
+            <rFont val="Calibri"/>
             <family val="2"/>
             <scheme val="minor"/>
           </rPr>
@@ -189,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>物料价格清单</t>
   </si>
@@ -372,9 +406,6 @@
     <t>S10000</t>
   </si>
   <si>
-    <t>TR0001</t>
-  </si>
-  <si>
     <t>Z00001</t>
   </si>
   <si>
@@ -391,17 +422,44 @@
   <si>
     <t>促销价格</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">单位 </t>
+  </si>
+  <si>
+    <t>台</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>张</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>条</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>盒</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,10 +486,22 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -476,18 +546,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -500,11 +567,13 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,9 +589,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -560,7 +629,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -666,7 +735,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -808,48 +877,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I59" sqref="I59"/>
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G59" sqref="G59:G62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="9"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="10" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="7"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -868,523 +943,677 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F5" s="11" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F6" s="11" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F7" s="11" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8" s="11" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F9" s="11" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F10" s="11" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F11" s="11" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F13" s="11" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F14" s="11" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="3">
         <v>910</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="11" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="3">
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="11" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="3">
         <v>420</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F17" s="11" t="s">
+    <row r="17" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="3">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="11" t="s">
+    <row r="18" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F19" s="11" t="s">
+    <row r="19" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="11" t="s">
+    <row r="20" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F21" s="11" t="s">
+    <row r="21" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="3">
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F22" s="11" t="s">
+    <row r="22" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F22" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="3">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F23" s="11" t="s">
+    <row r="23" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="3">
         <v>21.3</v>
       </c>
     </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F24" s="11" t="s">
+    <row r="24" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="3">
         <v>85.2</v>
       </c>
     </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F25" s="11" t="s">
+    <row r="25" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F26" s="11" t="s">
+    <row r="26" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="3">
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F27" s="11" t="s">
+    <row r="27" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="3">
         <v>639</v>
       </c>
     </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F28" s="11" t="s">
+    <row r="28" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F28" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="3">
         <v>568</v>
       </c>
     </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F29" s="11" t="s">
+    <row r="29" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F29" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="3">
         <v>198.8</v>
       </c>
     </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F30" s="11" t="s">
+    <row r="30" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F30" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="3">
         <v>276.89999999999998</v>
       </c>
     </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F31" s="11" t="s">
+    <row r="31" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="3">
         <v>1065</v>
       </c>
     </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F32" s="11" t="s">
+    <row r="32" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F32" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="3">
         <v>4260</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F33" s="11" t="s">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F33" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="3">
         <v>85.2</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F34" s="11" t="s">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F34" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="3">
         <v>319.5</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F35" s="11" t="s">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F35" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F36" s="11" t="s">
+    <row r="36" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F36" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="3"/>
+      <c r="H36" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F37" s="11" t="s">
+    <row r="37" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F37" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="3"/>
+      <c r="H37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F38" s="11" t="s">
+    <row r="38" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F38" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="3"/>
+      <c r="H38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F39" s="11" t="s">
+    <row r="39" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F39" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="3">
         <v>1704</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F40" s="11" t="s">
+    <row r="40" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="3">
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F41" s="11" t="s">
+    <row r="41" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="3">
         <v>35.5</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F42" s="11" t="s">
+    <row r="42" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F42" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="3">
         <v>248.5</v>
       </c>
     </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F43" s="11" t="s">
+    <row r="43" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F43" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H43" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F44" s="11" t="s">
+    <row r="44" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F44" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H44" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F45" s="11" t="s">
+    <row r="45" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F45" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="3">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F46" s="11" t="s">
+    <row r="46" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F46" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H46" s="3">
         <v>710</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F47" s="11" t="s">
+    <row r="47" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F47" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H47" s="3">
         <v>9960</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.2">
-      <c r="F48" s="11" t="s">
+    <row r="48" spans="6:8" x14ac:dyDescent="0.2">
+      <c r="F48" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H48" s="3">
         <v>9540</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F49" s="11" t="s">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F49" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H49" s="3">
         <v>2105</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F50" s="11" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F50" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" s="3">
         <v>3505</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F51" s="11" t="s">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F51" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F52" s="11" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H52" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F53" s="11" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G53" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="3">
         <v>12765</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F54" s="11" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G54" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F55" s="11" t="s">
+      <c r="G54" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F55" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G55" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F56" s="11" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G56" s="11">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="2">
         <v>1</v>
       </c>
-      <c r="E57" s="12">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="E57" s="2">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
         <v>1</v>
       </c>
-      <c r="E58" s="12">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="12">
-        <v>2</v>
-      </c>
-      <c r="E59" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F60" s="11" t="s">
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F59" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H59" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F61" s="11" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F60" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F62" s="11" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F61" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G62" s="11">
+      <c r="G61" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F63" s="11" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F62" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G62" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H62" s="3">
         <v>3000</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F2:H2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
